--- a/BIDS_assignment_test_data_predictionsubmissionformat.xlsx
+++ b/BIDS_assignment_test_data_predictionsubmissionformat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\TCGA\Lung LUAD LUSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmp111\Documents\Imperial - Lectureship\Teaching\BSc Medical Biosciences\BIDS23 - assignment dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C64B4B9-E502-4BAE-93A5-75DA1A99EE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E88E1-2F90-4EA6-A563-6A2B922502A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{4E8B2DC4-D2C3-4CC2-9A0E-090DE0EA183A}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{4E8B2DC4-D2C3-4CC2-9A0E-090DE0EA183A}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
@@ -86,13 +86,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,20 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F488E7DA-412E-4B04-B8B9-89E9353995FA}">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -461,7 +464,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="2"/>
     </row>
@@ -473,1639 +476,1429 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1058</v>
+        <v>1067</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1060</v>
+        <v>1069</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1066</v>
+        <v>1083</v>
       </c>
       <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1072</v>
+        <v>1093</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>1079</v>
+        <v>1102</v>
       </c>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>1080</v>
+        <v>1103</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1081</v>
+        <v>1104</v>
       </c>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1082</v>
+        <v>1105</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1083</v>
+        <v>1106</v>
       </c>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1084</v>
+        <v>1107</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>1086</v>
+        <v>1108</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1087</v>
+        <v>1109</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>1089</v>
+        <v>1110</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1091</v>
+        <v>1112</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1094</v>
+        <v>1116</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>1096</v>
+        <v>1120</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>1098</v>
+        <v>1122</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>1099</v>
+        <v>1124</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1100</v>
+        <v>1126</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1102</v>
+        <v>1128</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>1103</v>
+        <v>1129</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1105</v>
+        <v>1130</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>1106</v>
+        <v>1131</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>1107</v>
+        <v>1132</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>1108</v>
+        <v>1133</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>1109</v>
+        <v>1134</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>1110</v>
+        <v>1135</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>1111</v>
+        <v>1138</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>1112</v>
+        <v>1139</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>1113</v>
+        <v>1141</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>1114</v>
+        <v>1142</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>1116</v>
+        <v>1144</v>
       </c>
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>1117</v>
+        <v>1145</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>1119</v>
+        <v>1146</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>1121</v>
+        <v>1147</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>1124</v>
+        <v>1149</v>
       </c>
       <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>1129</v>
+        <v>1154</v>
       </c>
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>1133</v>
+        <v>1160</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>1139</v>
+        <v>1168</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>1140</v>
+        <v>1169</v>
       </c>
       <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>1144</v>
+        <v>1174</v>
       </c>
       <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>1145</v>
+        <v>1175</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>1146</v>
+        <v>1179</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>1147</v>
+        <v>1180</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>1148</v>
+        <v>1181</v>
       </c>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>1149</v>
+        <v>1182</v>
       </c>
       <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>1150</v>
+        <v>1183</v>
       </c>
       <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>1152</v>
+        <v>1184</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>1153</v>
+        <v>1185</v>
       </c>
       <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>1154</v>
+        <v>1186</v>
       </c>
       <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>1155</v>
+        <v>1187</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>1157</v>
+        <v>1190</v>
       </c>
       <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>1159</v>
+        <v>1191</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>1160</v>
+        <v>1195</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>1161</v>
+        <v>1196</v>
       </c>
       <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>1162</v>
+        <v>1197</v>
       </c>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>1163</v>
+        <v>1198</v>
       </c>
       <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>1166</v>
+        <v>1201</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>1167</v>
+        <v>1203</v>
       </c>
       <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>1168</v>
+        <v>1204</v>
       </c>
       <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>1169</v>
+        <v>1207</v>
       </c>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>1170</v>
+        <v>1208</v>
       </c>
       <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>1172</v>
+        <v>1209</v>
       </c>
       <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>1173</v>
+        <v>1210</v>
       </c>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>1174</v>
+        <v>1212</v>
       </c>
       <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>1175</v>
+        <v>1213</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>1176</v>
+        <v>1214</v>
       </c>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>1177</v>
+        <v>1215</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>1178</v>
+        <v>1217</v>
       </c>
       <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>1179</v>
+        <v>1219</v>
       </c>
       <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>1180</v>
+        <v>1220</v>
       </c>
       <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>1181</v>
+        <v>1221</v>
       </c>
       <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>1182</v>
+        <v>1223</v>
       </c>
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>1184</v>
+        <v>1224</v>
       </c>
       <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>1185</v>
+        <v>1225</v>
       </c>
       <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>1186</v>
+        <v>1226</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>1187</v>
+        <v>1228</v>
       </c>
       <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>1188</v>
+        <v>1229</v>
       </c>
       <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>1189</v>
+        <v>1232</v>
       </c>
       <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>1190</v>
+        <v>1233</v>
       </c>
       <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>1192</v>
+        <v>1234</v>
       </c>
       <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>1193</v>
+        <v>1235</v>
       </c>
       <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>1194</v>
+        <v>1236</v>
       </c>
       <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>1195</v>
+        <v>1237</v>
       </c>
       <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>1196</v>
+        <v>1240</v>
       </c>
       <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>1198</v>
+        <v>1243</v>
       </c>
       <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>1199</v>
+        <v>1246</v>
       </c>
       <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>1200</v>
+        <v>1247</v>
       </c>
       <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>1201</v>
+        <v>1248</v>
       </c>
       <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>1204</v>
+        <v>1250</v>
       </c>
       <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>1205</v>
+        <v>1251</v>
       </c>
       <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>1207</v>
+        <v>1252</v>
       </c>
       <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>1208</v>
+        <v>1253</v>
       </c>
       <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>1209</v>
+        <v>1255</v>
       </c>
       <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>1210</v>
+        <v>1256</v>
       </c>
       <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>1211</v>
+        <v>1257</v>
       </c>
       <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>1213</v>
+        <v>1258</v>
       </c>
       <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>1214</v>
+        <v>1259</v>
       </c>
       <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>1215</v>
+        <v>1260</v>
       </c>
       <c r="B186" s="2"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>1216</v>
+        <v>1261</v>
       </c>
       <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>1217</v>
+        <v>1262</v>
       </c>
       <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>1218</v>
+        <v>1263</v>
       </c>
       <c r="B189" s="2"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>1219</v>
+        <v>1264</v>
       </c>
       <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>1220</v>
+        <v>1266</v>
       </c>
       <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>1221</v>
+        <v>1267</v>
       </c>
       <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>1222</v>
+        <v>1270</v>
       </c>
       <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>1224</v>
+        <v>1271</v>
       </c>
       <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>1225</v>
+        <v>1273</v>
       </c>
       <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>1226</v>
+        <v>1275</v>
       </c>
       <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <v>1228</v>
+        <v>1276</v>
       </c>
       <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>1230</v>
+        <v>1277</v>
       </c>
       <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>1232</v>
+        <v>1280</v>
       </c>
       <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <v>1233</v>
+        <v>1281</v>
       </c>
       <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>1234</v>
+        <v>1283</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>1235</v>
+        <v>1284</v>
       </c>
       <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>1237</v>
+        <v>1287</v>
       </c>
       <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>1238</v>
+        <v>1288</v>
       </c>
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>1239</v>
+        <v>1289</v>
       </c>
       <c r="B206" s="2"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>1241</v>
+        <v>1290</v>
       </c>
       <c r="B207" s="2"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>1243</v>
+        <v>1294</v>
       </c>
       <c r="B209" s="2"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <v>1245</v>
+        <v>1296</v>
       </c>
       <c r="B210" s="2"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>1246</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>1247</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>1248</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>1249</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>1250</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>1252</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>1253</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>1254</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>1255</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>1256</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>1259</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <v>1260</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <v>1261</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <v>1262</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <v>1264</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>1265</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>1266</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>1267</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>1268</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>1269</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>1270</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>1271</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>1272</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>1274</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>1275</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>1276</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <v>1277</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>1278</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>1279</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>1280</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>1284</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>1285</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>1286</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>1287</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>1288</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>1290</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <v>1291</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>1293</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>1294</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>1295</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>1296</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>1298</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
         <v>1348</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>1350</v>
       </c>
     </row>
   </sheetData>
